--- a/data/input/absenteeism_data_2.xlsx
+++ b/data/input/absenteeism_data_2.xlsx
@@ -476,127 +476,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35939</v>
+        <v>40357</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Laura Costa</t>
+          <t>Esther Campos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45086</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>11121.5</v>
+        <v>8841.360000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35354</v>
+        <v>91225</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joana Jesus</t>
+          <t>Yasmin Ferreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>9546.360000000001</v>
+        <v>2928.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55811</v>
+        <v>86177</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Paulo Carvalho</t>
+          <t>Nicolas Nascimento</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>4404.9</v>
+        <v>7986.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6532</v>
+        <v>67099</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Alice Porto</t>
+          <t>Sarah Monteiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>11927.43</v>
+        <v>9132.700000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69072</v>
+        <v>97873</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Laura Fogaça</t>
+          <t>João Pedro Moreira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>3599.93</v>
+        <v>4891.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>55968</v>
+        <v>73934</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Eloah Rodrigues</t>
+          <t>João Felipe Aragão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>4104.74</v>
+        <v>11649.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31585</v>
+        <v>91985</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Bernardo Moraes</t>
+          <t>João Gabriel da Rosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>4824.14</v>
+        <v>6319.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79490</v>
+        <v>18576</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Otávio Dias</t>
+          <t>Rebeca Costa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>10105.79</v>
+        <v>3267.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>39849</v>
+        <v>94968</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Natália Pires</t>
+          <t>Igor da Luz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45092</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>9105.5</v>
+        <v>5799.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>58072</v>
+        <v>68838</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alexia Correia</t>
+          <t>Srta. Bianca Dias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>10764.06</v>
+        <v>6577.96</v>
       </c>
     </row>
   </sheetData>
